--- a/Sample excel files/stata_conference_harmonia_02.xlsx
+++ b/Sample excel files/stata_conference_harmonia_02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6948"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="7" r:id="rId1"/>
@@ -254,6 +254,111 @@
     <t xml:space="preserve">This can be done through the findit command in Stata. </t>
   </si>
   <si>
+    <t>This program has been made by BiostatGlobal Consulting and you may contact us with any questions. Contact information is listed below.</t>
+  </si>
+  <si>
+    <t>Dale Rhoda</t>
+  </si>
+  <si>
+    <t>Statistician &amp; President</t>
+  </si>
+  <si>
+    <t>Dale.Rhoda@biostatglobal.com</t>
+  </si>
+  <si>
+    <t>Mary Kay Trimner</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>MaryKay.Trimner@biostatglobal.com</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>gs7</t>
+  </si>
+  <si>
+    <t>gs15</t>
+  </si>
+  <si>
+    <t>Charleroi: N=300</t>
+  </si>
+  <si>
+    <t>Tarramba: N=277</t>
+  </si>
+  <si>
+    <t>Bellata: N=315</t>
+  </si>
+  <si>
+    <t>Manton: N=323</t>
+  </si>
+  <si>
+    <t>Colebee: N=346</t>
+  </si>
+  <si>
+    <t>Harmonia: N=3,160</t>
+  </si>
+  <si>
+    <t>Pinnacles: N=284</t>
+  </si>
+  <si>
+    <t>Sutherlands: N=323</t>
+  </si>
+  <si>
+    <t>Dongolocking: N=308</t>
+  </si>
+  <si>
+    <t>Rosebud: N=346</t>
+  </si>
+  <si>
+    <t>Pegarah: N=338</t>
+  </si>
+  <si>
+    <t>Estimated Coverage %</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>foreground</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>Red vertical line at 95%; Text at right: 1-sided 95% LCB | Point Estimate | 1-sided 95% UCB, size(vsmall) span</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>gs8</t>
+  </si>
+  <si>
+    <t>harmonia_02, replace</t>
+  </si>
+  <si>
+    <t>harmonia_02.png, width(2000) replace</t>
+  </si>
+  <si>
+    <t>0 135</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Once the program has been downloaded you can use Stata help command to look up </t>
     </r>
@@ -267,7 +372,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>iwplot_vcqi</t>
+      <t>iwplot_svyp</t>
     </r>
     <r>
       <rPr>
@@ -302,111 +407,6 @@
       <t>graph options for additional assistance.</t>
     </r>
   </si>
-  <si>
-    <t>This program has been made by BiostatGlobal Consulting and you may contact us with any questions. Contact information is listed below.</t>
-  </si>
-  <si>
-    <t>Dale Rhoda</t>
-  </si>
-  <si>
-    <t>Statistician &amp; President</t>
-  </si>
-  <si>
-    <t>Dale.Rhoda@biostatglobal.com</t>
-  </si>
-  <si>
-    <t>Mary Kay Trimner</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>MaryKay.Trimner@biostatglobal.com</t>
-  </si>
-  <si>
-    <t>ESS</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>gs7</t>
-  </si>
-  <si>
-    <t>gs15</t>
-  </si>
-  <si>
-    <t>Charleroi: N=300</t>
-  </si>
-  <si>
-    <t>Tarramba: N=277</t>
-  </si>
-  <si>
-    <t>Bellata: N=315</t>
-  </si>
-  <si>
-    <t>Manton: N=323</t>
-  </si>
-  <si>
-    <t>Colebee: N=346</t>
-  </si>
-  <si>
-    <t>Harmonia: N=3,160</t>
-  </si>
-  <si>
-    <t>Pinnacles: N=284</t>
-  </si>
-  <si>
-    <t>Sutherlands: N=323</t>
-  </si>
-  <si>
-    <t>Dongolocking: N=308</t>
-  </si>
-  <si>
-    <t>Rosebud: N=346</t>
-  </si>
-  <si>
-    <t>Pegarah: N=338</t>
-  </si>
-  <si>
-    <t>Estimated Coverage %</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>foreground</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>Red vertical line at 95%; Text at right: 1-sided 95% LCB | Point Estimate | 1-sided 95% UCB, size(vsmall) span</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>gs8</t>
-  </si>
-  <si>
-    <t>harmonia_02, replace</t>
-  </si>
-  <si>
-    <t>harmonia_02.png, width(2000) replace</t>
-  </si>
-  <si>
-    <t>0 135</t>
-  </si>
 </sst>
 </file>
 
@@ -414,7 +414,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="##0.0;;0.0;"/>
-    <numFmt numFmtId="167" formatCode="##0.0;;0.0"/>
+    <numFmt numFmtId="165" formatCode="##0.0;;0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -631,6 +631,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -664,7 +665,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -715,6 +715,44 @@
         <a:xfrm>
           <a:off x="101601" y="72081"/>
           <a:ext cx="1628249" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>72081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101601" y="72081"/>
+          <a:ext cx="1628249" cy="454660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1025,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1035,119 +1073,119 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="29"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
+      <c r="A7" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3"/>
@@ -1166,51 +1204,51 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
+      <c r="A9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1223,16 +1261,16 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1244,20 +1282,20 @@
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="7"/>
@@ -1508,13 +1546,13 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="13">
         <v>75</v>
@@ -1523,13 +1561,13 @@
         <v>82</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P2">
         <v>75</v>
@@ -1544,21 +1582,21 @@
         <v>95</v>
       </c>
       <c r="V2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="13">
         <v>69</v>
@@ -1567,13 +1605,13 @@
         <v>85</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3">
         <v>75</v>
@@ -1588,21 +1626,21 @@
         <v>95</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="13">
         <v>79</v>
@@ -1611,13 +1649,13 @@
         <v>86</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P4">
         <v>75</v>
@@ -1632,21 +1670,21 @@
         <v>95</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="13">
         <v>81</v>
@@ -1655,13 +1693,13 @@
         <v>88</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P5">
         <v>75</v>
@@ -1676,21 +1714,21 @@
         <v>95</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="13">
         <v>87</v>
@@ -1699,13 +1737,13 @@
         <v>90</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P6">
         <v>75</v>
@@ -1720,21 +1758,21 @@
         <v>95</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="13">
         <v>790</v>
@@ -1743,13 +1781,13 @@
         <v>91.9</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7">
         <v>75</v>
@@ -1764,24 +1802,24 @@
         <v>95</v>
       </c>
       <c r="V7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" t="s">
         <v>77</v>
-      </c>
-      <c r="W7" t="s">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="13">
         <v>71</v>
@@ -1790,13 +1828,13 @@
         <v>94</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P8">
         <v>75</v>
@@ -1811,21 +1849,21 @@
         <v>95</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="13">
         <v>81</v>
@@ -1834,13 +1872,13 @@
         <v>96</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P9">
         <v>75</v>
@@ -1855,21 +1893,21 @@
         <v>95</v>
       </c>
       <c r="V9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="13">
         <v>77</v>
@@ -1878,13 +1916,13 @@
         <v>98</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P10">
         <v>75</v>
@@ -1899,21 +1937,21 @@
         <v>95</v>
       </c>
       <c r="V10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="13">
         <v>87</v>
@@ -1922,13 +1960,13 @@
         <v>98</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P11">
         <v>75</v>
@@ -1943,36 +1981,36 @@
         <v>95</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="13">
         <v>85</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="19">
         <v>100</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P12">
         <v>75</v>
@@ -1987,10 +2025,10 @@
         <v>95</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2006,7 +2044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2076,13 +2114,13 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -2097,16 +2135,16 @@
         <v>2</v>
       </c>
       <c r="M2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" t="s">
         <v>98</v>
       </c>
-      <c r="N2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" t="s">
-        <v>99</v>
-      </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2279,7 @@
         <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2255,7 +2293,7 @@
         <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2307,13 +2345,13 @@
         <v>11.5</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
         <v>92</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2327,10 +2365,10 @@
         <v>11.5</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
